--- a/biology/Botanique/Index_synonymique_de_la_flore_de_France/Index_synonymique_de_la_flore_de_France.xlsx
+++ b/biology/Botanique/Index_synonymique_de_la_flore_de_France/Index_synonymique_de_la_flore_de_France.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'Index synonymique de la flore de France de Michel Kerguélen, couramment cité comme l’« Index de Kerguélen », est une liste alphabétique des taxons de la flore spontanée et cultivée française, leurs synonymes et leurs hybrides. Cet index a été initié par Michel Kerguélen (1928-1999).
@@ -513,7 +525,9 @@
           <t>Lien externe</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'index de Kerguélen sur le site de l'INRA
 Base de Données des Trachéophytes de France métropolitaine et contrées limitrophes (BDTFX)
